--- a/biology/Botanique/Geranium_palmatum/Geranium_palmatum.xlsx
+++ b/biology/Botanique/Geranium_palmatum/Geranium_palmatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geranium palmatum[1], faussement appelé géranium des Canaries, est une espèce de plante à fleurs de la famille des Géraniacées, originaire de l'île de Madère. C'est une plante vivace formant des rosettes de 1,5 m de hauteur par 1 m de large. Elle possède des feuilles persistantes palmées et des fleurs roses de 4 cm de diamètre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geranium palmatum, faussement appelé géranium des Canaries, est une espèce de plante à fleurs de la famille des Géraniacées, originaire de l'île de Madère. C'est une plante vivace formant des rosettes de 1,5 m de hauteur par 1 m de large. Elle possède des feuilles persistantes palmées et des fleurs roses de 4 cm de diamètre.
 Ce géranium est rustique jusqu'à -10 °C. En culture, cette plante nécessite une situation abritée en plein soleil avec un peu d'ombre l'après-midi. Elle n'aime pas les sols lourds et humides, préférant un milieu léger et bien drainé.
 L'espèce est sympatrique avec une autre espèce proche, également endémique de Madère : Le bien nommé Géranium de Madère.
 </t>
